--- a/Jogos_do_Dia/2023-01-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="G3" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>4.94</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -761,10 +761,10 @@
         <v>2.64</v>
       </c>
       <c r="M3" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="N3" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="G4" t="n">
         <v>5.5</v>
@@ -871,10 +871,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="G5" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.12</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -1044,7 +1044,7 @@
         <v>3.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1201,10 +1201,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="I8" t="n">
         <v>1.09</v>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="I13" t="n">
         <v>1.1</v>
@@ -1924,7 +1924,7 @@
         <v>3.74</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="G14" t="n">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1971,10 +1971,10 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2063,10 +2063,10 @@
         <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.48</v>
+        <v>4.05</v>
       </c>
       <c r="I15" t="n">
         <v>1.05</v>
@@ -2081,10 +2081,10 @@
         <v>2.71</v>
       </c>
       <c r="M15" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="N15" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -2170,13 +2170,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="G16" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.86</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2191,10 +2191,10 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="N16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2388,13 +2388,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="G18" t="n">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="H18" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="I18" t="n">
         <v>1.04</v>
@@ -2409,10 +2409,10 @@
         <v>2.85</v>
       </c>
       <c r="M18" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="N18" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="G19" t="n">
-        <v>4.92</v>
+        <v>4.34</v>
       </c>
       <c r="H19" t="n">
-        <v>7.99</v>
+        <v>5.51</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="N19" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-01-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>3.14</v>
+        <v>2.42</v>
       </c>
       <c r="H3" t="n">
-        <v>4.94</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -761,10 +761,10 @@
         <v>2.64</v>
       </c>
       <c r="M3" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
@@ -788,10 +788,10 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X3" t="n">
         <v>1.53</v>
@@ -853,10 +853,10 @@
         <v>1.23</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="H4" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -871,10 +871,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -898,10 +898,10 @@
         <v>3.9</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="X4" t="n">
         <v>1.98</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.15</v>
@@ -975,10 +975,10 @@
         <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M5" t="n">
         <v>2.45</v>
@@ -1008,10 +1008,10 @@
         <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="W5" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="X5" t="n">
         <v>1.13</v>
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1091,10 +1091,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="N6" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1118,10 +1118,10 @@
         <v>1.68</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
         <v>1.61</v>
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1201,10 +1201,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1228,10 +1228,10 @@
         <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="X7" t="n">
         <v>1.86</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="H8" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
         <v>1.09</v>
@@ -1311,10 +1311,10 @@
         <v>2.55</v>
       </c>
       <c r="M8" t="n">
-        <v>2.15</v>
+        <v>2.41</v>
       </c>
       <c r="N8" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1338,10 +1338,10 @@
         <v>1.17</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="X8" t="n">
         <v>1.34</v>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4.09</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1421,10 +1421,10 @@
         <v>3.2</v>
       </c>
       <c r="M9" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="O9" t="n">
         <v>1.43</v>
@@ -1448,10 +1448,10 @@
         <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="X9" t="n">
         <v>1.68</v>
@@ -1558,10 +1558,10 @@
         <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
         <v>1.73</v>
@@ -1668,10 +1668,10 @@
         <v>1.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
         <v>1.24</v>
@@ -1778,10 +1778,10 @@
         <v>1.33</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="X12" t="n">
         <v>1.5</v>
@@ -1802,7 +1802,7 @@
         <v>1.52</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE12" t="n">
         <v>1.35</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>5.09</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="H13" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="I13" t="n">
         <v>1.1</v>
@@ -1861,7 +1861,7 @@
         <v>2.55</v>
       </c>
       <c r="M13" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="N13" t="n">
         <v>1.45</v>
@@ -1888,10 +1888,10 @@
         <v>1.21</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
         <v>1.3</v>
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>3.72</v>
       </c>
       <c r="H14" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1971,10 +1971,10 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="N14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -1998,10 +1998,10 @@
         <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="X14" t="n">
         <v>1.79</v>
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I15" t="n">
         <v>1.05</v>
@@ -2081,10 +2081,10 @@
         <v>2.71</v>
       </c>
       <c r="M15" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="N15" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -2108,10 +2108,10 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="X15" t="n">
         <v>1.69</v>
@@ -2170,13 +2170,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>3.67</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2191,10 +2191,10 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="N16" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2218,10 +2218,10 @@
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
         <v>1.94</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2388,13 +2388,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.61</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>1.04</v>
@@ -2409,10 +2409,10 @@
         <v>2.85</v>
       </c>
       <c r="M18" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="N18" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2436,10 +2436,10 @@
         <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
         <v>1.43</v>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G19" t="n">
-        <v>4.34</v>
+        <v>4.44</v>
       </c>
       <c r="H19" t="n">
-        <v>5.51</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="N19" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>1.65</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>1.77</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
